--- a/nmadb/501363.xlsx
+++ b/nmadb/501363.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="18195" windowHeight="11310"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -27,9 +27,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>tx</t>
-  </si>
-  <si>
     <t>r</t>
   </si>
   <si>
@@ -145,13 +142,16 @@
   </si>
   <si>
     <t>Marks et al.</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -295,7 +295,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -330,7 +329,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -506,14 +504,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="17" style="3" bestFit="1" customWidth="1"/>
@@ -521,7 +519,7 @@
     <col min="10" max="10" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -532,30 +530,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3">
         <v>1992</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -570,7 +568,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
       <c r="D3" s="3">
         <v>2</v>
       </c>
@@ -581,16 +582,16 @@
         <v>5</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3">
         <v>1993</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -608,10 +609,13 @@
         <v>1</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
       <c r="D5" s="3">
         <v>2</v>
       </c>
@@ -625,15 +629,15 @@
         <v>2</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>1995</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
@@ -651,10 +655,13 @@
         <v>3</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
       <c r="D7" s="3">
         <v>2</v>
       </c>
@@ -668,15 +675,15 @@
         <v>4</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>1995</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3">
         <v>4</v>
@@ -694,10 +701,13 @@
         <v>5</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
       <c r="D9" s="3">
         <v>2</v>
       </c>
@@ -711,15 +721,15 @@
         <v>6</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="3">
         <v>1999</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3">
         <v>5</v>
@@ -737,10 +747,13 @@
         <v>7</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
       <c r="D11" s="3">
         <v>2</v>
       </c>
@@ -754,15 +767,15 @@
         <v>8</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>1995</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3">
         <v>6</v>
@@ -780,10 +793,13 @@
         <v>9</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="C13" s="3">
+        <v>6</v>
+      </c>
       <c r="D13" s="3">
         <v>2</v>
       </c>
@@ -794,12 +810,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="3">
         <v>1993</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3">
         <v>7</v>
@@ -814,7 +830,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
+      <c r="C15" s="3">
+        <v>7</v>
+      </c>
       <c r="D15" s="3">
         <v>3</v>
       </c>
@@ -825,12 +844,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="3">
         <v>1999</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3">
         <v>8</v>
@@ -845,7 +864,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
+      <c r="C17" s="3">
+        <v>8</v>
+      </c>
       <c r="D17" s="3">
         <v>4</v>
       </c>
@@ -856,12 +878,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="3">
         <v>2000</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3">
         <v>9</v>
@@ -876,7 +898,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
+      <c r="C19" s="3">
+        <v>9</v>
+      </c>
       <c r="D19" s="3">
         <v>3</v>
       </c>
@@ -887,12 +912,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="3">
         <v>1993</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="3">
         <v>10</v>
@@ -907,7 +932,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
+      <c r="C21" s="3">
+        <v>10</v>
+      </c>
       <c r="D21" s="3">
         <v>5</v>
       </c>
@@ -918,12 +946,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="3">
         <v>1999</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="3">
         <v>11</v>
@@ -938,7 +966,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
+      <c r="C23" s="3">
+        <v>11</v>
+      </c>
       <c r="D23" s="3">
         <v>5</v>
       </c>
@@ -949,12 +980,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="3">
         <v>2006</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="3">
         <v>12</v>
@@ -969,7 +1000,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
+      <c r="C25" s="3">
+        <v>12</v>
+      </c>
       <c r="D25" s="3">
         <v>5</v>
       </c>
@@ -980,12 +1014,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="3">
         <v>1995</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="3">
         <v>13</v>
@@ -1000,7 +1034,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
+      <c r="C27" s="3">
+        <v>13</v>
+      </c>
       <c r="D27" s="3">
         <v>3</v>
       </c>
@@ -1011,12 +1048,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="3">
         <v>2007</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="3">
         <v>14</v>
@@ -1031,7 +1068,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
+      <c r="C29" s="3">
+        <v>14</v>
+      </c>
       <c r="D29" s="3">
         <v>3</v>
       </c>
@@ -1042,12 +1082,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="3">
         <v>1999</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="3">
         <v>15</v>
@@ -1062,7 +1102,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
+      <c r="C31" s="3">
+        <v>15</v>
+      </c>
       <c r="D31" s="3">
         <v>4</v>
       </c>
@@ -1073,12 +1116,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="3">
         <v>2003</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="3">
         <v>16</v>
@@ -1093,7 +1136,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
+      <c r="C33" s="3">
+        <v>16</v>
+      </c>
       <c r="D33" s="3">
         <v>4</v>
       </c>
@@ -1104,12 +1150,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="3">
         <v>2006</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="3">
         <v>17</v>
@@ -1124,7 +1170,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
+      <c r="C35" s="3">
+        <v>17</v>
+      </c>
       <c r="D35" s="3">
         <v>4</v>
       </c>
@@ -1135,12 +1184,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="3">
         <v>2006</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="3">
         <v>18</v>
@@ -1155,7 +1204,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
+      <c r="C37" s="3">
+        <v>18</v>
+      </c>
       <c r="D37" s="3">
         <v>4</v>
       </c>
@@ -1166,12 +1218,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="3">
         <v>2008</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="3">
         <v>19</v>
@@ -1186,7 +1238,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
+      <c r="C39" s="3">
+        <v>19</v>
+      </c>
       <c r="D39" s="3">
         <v>6</v>
       </c>
@@ -1197,12 +1252,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="3">
         <v>2005</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" s="3">
         <v>20</v>
@@ -1217,7 +1272,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
+      <c r="C41" s="3">
+        <v>20</v>
+      </c>
       <c r="D41" s="3">
         <v>6</v>
       </c>
@@ -1228,12 +1286,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="3">
         <v>2010</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="3">
         <v>21</v>
@@ -1248,7 +1306,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
+      <c r="C43" s="3">
+        <v>21</v>
+      </c>
       <c r="D43" s="3">
         <v>7</v>
       </c>
@@ -1259,12 +1320,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="3">
         <v>2007</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="3">
         <v>22</v>
@@ -1279,7 +1340,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
+      <c r="C45" s="3">
+        <v>22</v>
+      </c>
       <c r="D45" s="3">
         <v>4</v>
       </c>
@@ -1290,7 +1354,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
+      <c r="C46" s="3">
+        <v>22</v>
+      </c>
       <c r="D46" s="3">
         <v>8</v>
       </c>
@@ -1301,7 +1368,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
+      <c r="C47" s="3">
+        <v>22</v>
+      </c>
       <c r="D47" s="3">
         <v>8</v>
       </c>
@@ -1312,12 +1382,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="3">
         <v>2006</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" s="3">
         <v>23</v>
@@ -1332,7 +1402,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
+      <c r="C49" s="3">
+        <v>23</v>
+      </c>
       <c r="D49" s="3">
         <v>9</v>
       </c>
@@ -1343,12 +1416,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="3">
         <v>2011</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" s="3">
         <v>24</v>
@@ -1363,7 +1436,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
+      <c r="C51" s="3">
+        <v>24</v>
+      </c>
       <c r="D51" s="3">
         <v>7</v>
       </c>
@@ -1374,12 +1450,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="3">
         <v>2011</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C52" s="3">
         <v>25</v>
@@ -1394,7 +1470,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
+      <c r="C53" s="3">
+        <v>25</v>
+      </c>
       <c r="D53" s="3">
         <v>7</v>
       </c>
@@ -1411,24 +1490,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
